--- a/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 25,61</t>
+          <t>10,04; 39,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 27,95</t>
+          <t>4,88; 15,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,61</t>
+          <t>4,48; 11,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,46</t>
+          <t>5,41; 11,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,37</t>
+          <t>5,14; 14,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,43</t>
+          <t>6,16; 18,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,96</t>
+          <t>7,07; 18,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 14,19</t>
+          <t>6,98; 13,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 17,69</t>
+          <t>7,05; 12,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,44</t>
+          <t>7,05; 15,45</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 12,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,83</t>
+          <t>10,12; 26,38</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 14,94</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 11,18</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 10,93</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 13,78</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,36</t>
+          <t>11,42; 24,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 22,15</t>
+          <t>12,11; 23,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 13,54</t>
+          <t>7,4; 13,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,46</t>
+          <t>8,67; 15,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,61</t>
+          <t>8,3; 16,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 26,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,51</t>
+          <t>21,57; 32,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,94; 21,76</t>
+          <t>20,95; 30,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 25,12</t>
+          <t>15,24; 21,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,46</t>
+          <t>15,85; 21,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,57</t>
+          <t>14,72; 22,91</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 16,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 21,51</t>
+          <t>17,79; 26,05</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 25,27</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,21; 16,78</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 17,45</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 17,85</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,94</t>
+          <t>7,88; 19,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,04</t>
+          <t>7,42; 17,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 13,92</t>
+          <t>6,4; 15,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,76</t>
+          <t>5,5; 12,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,81</t>
+          <t>2,77; 8,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 23,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 23,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,03</t>
+          <t>11,07; 20,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,66</t>
+          <t>13,41; 22,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,38</t>
+          <t>8,14; 13,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,72</t>
+          <t>7,65; 12,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,72</t>
+          <t>6,78; 12,97</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 15,13</t>
+          <t>10,74; 17,88</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 18,29</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 13,47</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 11,62</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 9,8</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,9</t>
+          <t>14,2; 20,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 18,77</t>
+          <t>13,56; 21,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,42</t>
+          <t>8,31; 16,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,68</t>
+          <t>6,24; 13,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 21,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 21,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 15,23</t>
+          <t>16,95; 22,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 15,11</t>
+          <t>13,01; 19,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 17,58</t>
+          <t>9,8; 17,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 19,2</t>
+          <t>9,7; 17,25</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,33</t>
+          <t>16,31; 20,35</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 19,4</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 15,72</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 13,54</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 18,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 17,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 12,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 12,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 10,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 21,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,28; 20,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 15,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 15,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 15,25</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 19,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 18,57</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 13,26</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 13,18</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 12,61</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45124</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32098</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39535</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>58118</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41362</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28765</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62197</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84534</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>68089</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>73889</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>81179</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>101732</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>142652</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>109451</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22738; 89086</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16568; 53570</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23768; 61071</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39390; 81715</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22997; 65865</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16132; 48377</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29809; 77521</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44580; 87246</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>63341; 112321</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44542; 97664</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>49427; 128764</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>54651; 113698</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>77342; 130702</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>115167; 177776</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>79041; 148768</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107119</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>151141</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125461</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>186896</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123017</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>189563</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>255963</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>223759</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>279948</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>199721</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>296682</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>407104</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>349220</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>466844</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>322738</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>74313; 161601</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>112584; 218734</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89114; 167468</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>140076; 253761</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87890; 171622</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>154272; 233124</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>209492; 304435</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>187927; 270133</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>238744; 324636</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>158452; 246612</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>243011; 355780</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>345223; 487732</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>297572; 409170</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>401632; 544673</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>267839; 381084</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57388</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80480</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>83495</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>91777</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41304</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81391</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>133031</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102652</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>115547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84140</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>138780</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>213512</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>186147</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>207324</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>125445</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35593; 86313</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52742; 123892</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54146; 127672</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60018; 139089</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22991; 67588</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58862; 109676</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>103132; 169938</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>76481; 131469</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88992; 150004</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60494; 115646</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>105637; 175892</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>174981; 270593</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>148925; 240593</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>163619; 261913</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>96094; 168789</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>356964</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>247572</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>101806</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>405235</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>222488</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100350</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>126623</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>762200</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>470061</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>202156</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>224423</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>300197; 426070</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>197594; 312012</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71346; 141570</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67044; 141678</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>353057; 465210</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>181884; 266882</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74760; 130219</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>94657; 168286</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>684709; 854236</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>399392; 554106</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>161404; 254925</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>175607; 277511</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>566596</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>511291</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>350296</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>336791</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>303484</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>704954</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>660564</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>488957</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>480029</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>478573</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1271551</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1171855</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>839254</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>816819</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>782057</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>488909; 651315</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>427511; 612327</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>292366; 414857</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>274872; 425867</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>237554; 371831</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>639250; 783486</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>584504; 741731</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>436973; 560751</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>421206; 540821</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>417185; 545217</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1169558; 1391295</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1053922; 1304759</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>761227; 930255</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>733229; 923075</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>693578; 880884</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
